--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/79.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/79.xlsx
@@ -479,13 +479,13 @@
         <v>-0.267339593389505</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.320507418780267</v>
+        <v>-1.315911187390086</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1639653647211229</v>
+        <v>-0.1700026635770304</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1271298114355874</v>
+        <v>-0.1316121590746771</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.2941298121512676</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.388030262840521</v>
+        <v>-1.387777674520794</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.2314794484928321</v>
+        <v>-0.2383913161551938</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1323144422064041</v>
+        <v>-0.1347906837685853</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.3274504060066026</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.490914011614494</v>
+        <v>-1.492509844177857</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2790521954389102</v>
+        <v>-0.2838061120229089</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1369807559049483</v>
+        <v>-0.139801568816584</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.3505295092960722</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.641208441996453</v>
+        <v>-1.647512929652997</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2906566576654525</v>
+        <v>-0.2930847176406337</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1477967921624</v>
+        <v>-0.1497079951133995</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.3529592217879131</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.735464766601246</v>
+        <v>-1.741684571468517</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2892433311134529</v>
+        <v>-0.2924306160959066</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1671570298478493</v>
+        <v>-0.165930589451486</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.3320103888555626</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.576047955747289</v>
+        <v>-1.582491147972469</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2224913924451981</v>
+        <v>-0.2253910479537428</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1754793039660289</v>
+        <v>-0.1710611984429392</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.2973582160391326</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.419355594630968</v>
+        <v>-1.421538366526876</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1450927830980371</v>
+        <v>-0.1504555397359447</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1536866261611257</v>
+        <v>-0.1521477354733079</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.2600195123847989</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.149868678299586</v>
+        <v>-1.151420709420221</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.002863658370257089</v>
+        <v>-0.009255748912255373</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1318705875867679</v>
+        <v>-0.1281343245221326</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.2254392893627224</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.78087072428423</v>
+        <v>-0.7789566012370487</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08244111138917455</v>
+        <v>0.07715427725199415</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1192586921774986</v>
+        <v>-0.1148449667986816</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.1915117876198914</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4088241898550572</v>
+        <v>-0.4016276128149682</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1279537304789805</v>
+        <v>0.1175085464366197</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0745344990567833</v>
+        <v>-0.07230500562196572</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.152914652512794</v>
       </c>
       <c r="E12" t="n">
-        <v>0.05866860837299911</v>
+        <v>0.06823630351272382</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1402414952120681</v>
+        <v>0.1316330516680704</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02700162532928035</v>
+        <v>0.02824120615846183</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-0.105381816026337</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5983242834942178</v>
+        <v>0.6085212593611242</v>
       </c>
       <c r="F13" t="n">
-        <v>0.05995053059681695</v>
+        <v>0.05101649632854662</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1767383173405129</v>
+        <v>0.1816031975794206</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-0.0477200108676721</v>
       </c>
       <c r="E14" t="n">
-        <v>1.161001996912885</v>
+        <v>1.173190478375791</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.08881084928968856</v>
+        <v>-0.09414586501386894</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3056065419883873</v>
+        <v>0.3105239839585678</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.01946459303424559</v>
       </c>
       <c r="E15" t="n">
-        <v>1.809641501731893</v>
+        <v>1.819413603604344</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2600219286220062</v>
+        <v>-0.2599562264579153</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4879198270039747</v>
+        <v>0.4913845211237011</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.0945878249381143</v>
       </c>
       <c r="E16" t="n">
-        <v>2.435234147435906</v>
+        <v>2.449561599351993</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.4976053341189424</v>
+        <v>-0.4968680098330335</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6049091003842161</v>
+        <v>0.6097958813444875</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1766952620861245</v>
       </c>
       <c r="E17" t="n">
-        <v>3.04596350357447</v>
+        <v>3.06143709324192</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.6312625165049974</v>
+        <v>-0.6327152643554516</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7919281203968023</v>
+        <v>0.795769506923983</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.263012798221039</v>
       </c>
       <c r="E18" t="n">
-        <v>3.643091051698128</v>
+        <v>3.66562105378894</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.7543971322998735</v>
+        <v>-0.7564645603966001</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9354070462904001</v>
+        <v>0.9362217531251271</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3490189987619184</v>
       </c>
       <c r="E19" t="n">
-        <v>4.177541655375257</v>
+        <v>4.19971978587616</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9129466745878309</v>
+        <v>-0.9139541077705579</v>
       </c>
       <c r="G19" t="n">
-        <v>1.087411192986814</v>
+        <v>1.089028926271541</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.433009357537495</v>
       </c>
       <c r="E20" t="n">
-        <v>4.721300065631929</v>
+        <v>4.743592079883923</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.126703555289228</v>
+        <v>-1.129835358444227</v>
       </c>
       <c r="G20" t="n">
-        <v>1.246960868217044</v>
+        <v>1.248168327988225</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5136726641190216</v>
       </c>
       <c r="E21" t="n">
-        <v>5.179709904686442</v>
+        <v>5.205930908351071</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.283334594385731</v>
+        <v>-1.28704311653664</v>
       </c>
       <c r="G21" t="n">
-        <v>1.422649915044178</v>
+        <v>1.424771364920269</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5866471285683983</v>
       </c>
       <c r="E22" t="n">
-        <v>5.584995893953242</v>
+        <v>5.609967096452054</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.490113905260676</v>
+        <v>-1.494108596837402</v>
       </c>
       <c r="G22" t="n">
-        <v>1.539376379768056</v>
+        <v>1.539661089145783</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.647445766411205</v>
       </c>
       <c r="E23" t="n">
-        <v>5.855658148997806</v>
+        <v>5.883584488832617</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.668263133120992</v>
+        <v>-1.675434889343535</v>
       </c>
       <c r="G23" t="n">
-        <v>1.699613737649104</v>
+        <v>1.701505959974922</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.6953758089244784</v>
       </c>
       <c r="E24" t="n">
-        <v>6.16146084149436</v>
+        <v>6.187813249487172</v>
       </c>
       <c r="F24" t="n">
-        <v>-1.840783875590855</v>
+        <v>-1.846782483172353</v>
       </c>
       <c r="G24" t="n">
-        <v>1.815151723226982</v>
+        <v>1.813735476578801</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.7310198911717301</v>
       </c>
       <c r="E25" t="n">
-        <v>6.375182681041576</v>
+        <v>6.399331876465205</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.975668958421364</v>
+        <v>-1.982458912068135</v>
       </c>
       <c r="G25" t="n">
-        <v>1.918286600272591</v>
+        <v>1.914905128894046</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.7552190405562109</v>
       </c>
       <c r="E26" t="n">
-        <v>6.475939139747094</v>
+        <v>6.497647134762724</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.083153318729789</v>
+        <v>-2.087539303194879</v>
       </c>
       <c r="G26" t="n">
-        <v>1.981741750351574</v>
+        <v>1.979745864611302</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.7682655055427086</v>
       </c>
       <c r="E27" t="n">
-        <v>6.529522904683444</v>
+        <v>6.551587151433256</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.171932272921538</v>
+        <v>-2.174451585902401</v>
       </c>
       <c r="G27" t="n">
-        <v>2.064265128497824</v>
+        <v>2.061342112219825</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.7707048207450424</v>
       </c>
       <c r="E28" t="n">
-        <v>6.640480719400141</v>
+        <v>6.661686457872499</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.232866649971567</v>
+        <v>-2.232658593118613</v>
       </c>
       <c r="G28" t="n">
-        <v>2.093940605945543</v>
+        <v>2.092242570015816</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.763675957223411</v>
       </c>
       <c r="E29" t="n">
-        <v>6.577774573991794</v>
+        <v>6.599008053377879</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.293428714758415</v>
+        <v>-2.29332505134396</v>
       </c>
       <c r="G29" t="n">
-        <v>2.140863631491167</v>
+        <v>2.137143428955532</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.7491297079592383</v>
       </c>
       <c r="E30" t="n">
-        <v>6.541752267492894</v>
+        <v>6.567663740962251</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.329479492195087</v>
+        <v>-2.327817227443588</v>
       </c>
       <c r="G30" t="n">
-        <v>2.125918579232626</v>
+        <v>2.121427471304991</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.7292179154136376</v>
       </c>
       <c r="E31" t="n">
-        <v>6.453220791452555</v>
+        <v>6.478291277221548</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.311989576114092</v>
+        <v>-2.308786230602638</v>
       </c>
       <c r="G31" t="n">
-        <v>2.110236202688176</v>
+        <v>2.10254758944145</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.7045820029039387</v>
       </c>
       <c r="E32" t="n">
-        <v>6.279591872481692</v>
+        <v>6.301724741491777</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.317918831411272</v>
+        <v>-2.315019905926773</v>
       </c>
       <c r="G32" t="n">
-        <v>2.046508023616193</v>
+        <v>2.041048903804285</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.6750106513714625</v>
       </c>
       <c r="E33" t="n">
-        <v>6.093324777235924</v>
+        <v>6.120693378700008</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.342263673279084</v>
+        <v>-2.335532851579994</v>
       </c>
       <c r="G33" t="n">
-        <v>1.979942971103574</v>
+        <v>1.976789267227211</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.6399459982999552</v>
       </c>
       <c r="E34" t="n">
-        <v>5.855820214335897</v>
+        <v>5.880426404811981</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.382945723260118</v>
+        <v>-2.3820010721453</v>
       </c>
       <c r="G34" t="n">
-        <v>1.897653200651869</v>
+        <v>1.892356146178052</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.5993284169438572</v>
       </c>
       <c r="E35" t="n">
-        <v>5.63059173578423</v>
+        <v>5.655548337802133</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.371094512906212</v>
+        <v>-2.369518390992076</v>
       </c>
       <c r="G35" t="n">
-        <v>1.829225126775251</v>
+        <v>1.824392367594343</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.5536137430548097</v>
       </c>
       <c r="E36" t="n">
-        <v>5.440976750266008</v>
+        <v>5.465315751941456</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.330600809128905</v>
+        <v>-2.332330966116631</v>
       </c>
       <c r="G36" t="n">
-        <v>1.742140558393002</v>
+        <v>1.735733867370094</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.504396398841835</v>
       </c>
       <c r="E37" t="n">
-        <v>5.080171126088741</v>
+        <v>5.102426639138463</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.271367388104784</v>
+        <v>-2.271584205246284</v>
       </c>
       <c r="G37" t="n">
-        <v>1.653484978264935</v>
+        <v>1.649723894382754</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.4537649697249441</v>
       </c>
       <c r="E38" t="n">
-        <v>4.803737300940816</v>
+        <v>4.830492682206717</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.165035735764131</v>
+        <v>-2.168333984401494</v>
       </c>
       <c r="G38" t="n">
-        <v>1.551653924164507</v>
+        <v>1.551951773975053</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4032488011484925</v>
       </c>
       <c r="E39" t="n">
-        <v>4.509490889083804</v>
+        <v>4.536535359871706</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.146866897320863</v>
+        <v>-2.150863778969726</v>
       </c>
       <c r="G39" t="n">
-        <v>1.438866669189901</v>
+        <v>1.440754511371446</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.3539992985418722</v>
       </c>
       <c r="E40" t="n">
-        <v>4.241493221805149</v>
+        <v>4.267239709840233</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.118235354258144</v>
+        <v>-2.121884014437324</v>
       </c>
       <c r="G40" t="n">
-        <v>1.385084337713189</v>
+        <v>1.382489832255644</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3066829730126584</v>
       </c>
       <c r="E41" t="n">
-        <v>3.948721458519954</v>
+        <v>3.970538957142403</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.028439476571077</v>
+        <v>-2.03213923843344</v>
       </c>
       <c r="G41" t="n">
-        <v>1.264382162037766</v>
+        <v>1.262279692786858</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2621269212595861</v>
       </c>
       <c r="E42" t="n">
-        <v>3.695251269745841</v>
+        <v>3.714497623680199</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.933834200472557</v>
+        <v>-1.937066746945829</v>
       </c>
       <c r="G42" t="n">
-        <v>1.159201757616795</v>
+        <v>1.157532922648886</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2209076314132844</v>
       </c>
       <c r="E43" t="n">
-        <v>3.423407835795732</v>
+        <v>3.444882223116817</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.865789389219802</v>
+        <v>-1.869909644932347</v>
       </c>
       <c r="G43" t="n">
-        <v>1.065650636239911</v>
+        <v>1.064837389453274</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.18350527108943</v>
       </c>
       <c r="E44" t="n">
-        <v>3.154900611733349</v>
+        <v>3.177175105408252</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.825985558165449</v>
+        <v>-1.829029758434994</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9312707300488557</v>
+        <v>0.9320080543347646</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1494806190230228</v>
       </c>
       <c r="E45" t="n">
-        <v>2.896794770270601</v>
+        <v>2.918895518222686</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.744135992213153</v>
+        <v>-1.744663069573971</v>
       </c>
       <c r="G45" t="n">
-        <v>0.811904498376615</v>
+        <v>0.8103802081697064</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1174957727911855</v>
       </c>
       <c r="E46" t="n">
-        <v>2.649550226556121</v>
+        <v>2.668689996979844</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.696439141179348</v>
+        <v>-1.695265262514257</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7701602634094444</v>
+        <v>0.7702683069681717</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.08628380761086274</v>
       </c>
       <c r="E47" t="n">
-        <v>2.34915117204402</v>
+        <v>2.368877881800288</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.649691321404633</v>
+        <v>-1.648746670289815</v>
       </c>
       <c r="G47" t="n">
-        <v>0.6640118471042002</v>
+        <v>0.6625707796384733</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.05512702498159438</v>
       </c>
       <c r="E48" t="n">
-        <v>2.158665997863617</v>
+        <v>2.17639244173534</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.615327629537006</v>
+        <v>-1.614200472410824</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6014429462163988</v>
+        <v>0.6003420699558537</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.0233256271792796</v>
       </c>
       <c r="E49" t="n">
-        <v>1.961036808374397</v>
+        <v>1.979217327202393</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.567480393549837</v>
+        <v>-1.565017292420474</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5406509238552333</v>
+        <v>0.5388857257133247</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.00937468028541214</v>
       </c>
       <c r="E50" t="n">
-        <v>1.850441085584245</v>
+        <v>1.865735089336514</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.494869281892766</v>
+        <v>-1.491620674890494</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4794019064416134</v>
+        <v>0.4777900133492502</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.04195843183479257</v>
       </c>
       <c r="E51" t="n">
-        <v>1.673043782490747</v>
+        <v>1.688422469032289</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.438664730633235</v>
+        <v>-1.432897540674146</v>
       </c>
       <c r="G51" t="n">
-        <v>0.4205327674161747</v>
+        <v>0.4203780023185383</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.07405094843061455</v>
       </c>
       <c r="E52" t="n">
-        <v>1.554717105059234</v>
+        <v>1.56978188126123</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.399460979344246</v>
+        <v>-1.392508230335338</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3399585534712872</v>
+        <v>0.3390328829816511</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1052228321938939</v>
       </c>
       <c r="E53" t="n">
-        <v>1.379504033909735</v>
+        <v>1.390511336467096</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.361013532966347</v>
+        <v>-1.355437609307167</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2725817142201235</v>
+        <v>0.2729525664352143</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.1361837676105717</v>
       </c>
       <c r="E54" t="n">
-        <v>1.325257407140114</v>
+        <v>1.339876868674382</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.341910263744898</v>
+        <v>-1.336382521672717</v>
       </c>
       <c r="G54" t="n">
-        <v>0.2225166651828642</v>
+        <v>0.2192724383248651</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.1677750854190878</v>
       </c>
       <c r="E55" t="n">
-        <v>1.204727517139419</v>
+        <v>1.215927546044779</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.304823582187726</v>
+        <v>-1.300877072197999</v>
       </c>
       <c r="G55" t="n">
-        <v>0.163383257452971</v>
+        <v>0.1659281212754249</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2003710901501379</v>
       </c>
       <c r="E56" t="n">
-        <v>1.173881081122791</v>
+        <v>1.186062262345242</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.253310165444285</v>
+        <v>-1.247007137835832</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1019444337875329</v>
+        <v>0.1066866699868044</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.2337383170622186</v>
       </c>
       <c r="E57" t="n">
-        <v>1.082130199041997</v>
+        <v>1.095437077342539</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.243657787515287</v>
+        <v>-1.239666016034743</v>
       </c>
       <c r="G57" t="n">
-        <v>0.05842916048609009</v>
+        <v>0.0634823869287251</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.2671652611063799</v>
       </c>
       <c r="E58" t="n">
-        <v>1.027642664337375</v>
+        <v>1.042568735970735</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.205814801047025</v>
+        <v>-1.201834709951208</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.01941914367307082</v>
+        <v>-0.01344900702934516</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.2997035334525718</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9194282799834953</v>
+        <v>0.9336520684851278</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.122467955777502</v>
+        <v>-1.117481891547049</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.09599720599314117</v>
+        <v>-0.0894050888626884</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.3307701417999025</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8922129835689571</v>
+        <v>0.9122317029434063</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.103147139390507</v>
+        <v>-1.098885259013145</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1231497203397702</v>
+        <v>-0.1157939980577722</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.3598956829260755</v>
       </c>
       <c r="E61" t="n">
-        <v>0.7598567040319018</v>
+        <v>0.7787015447412603</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.074298049162242</v>
+        <v>-1.068374634057426</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1527813963447623</v>
+        <v>-0.144263475782401</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.3874980858352509</v>
       </c>
       <c r="E62" t="n">
-        <v>0.7212165313060031</v>
+        <v>0.7391430017661801</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.069059396612062</v>
+        <v>-1.063378349490336</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2266481493600152</v>
+        <v>-0.2202984002126533</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4136415195323604</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6296218743709368</v>
+        <v>0.6487616447946588</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.103531132038416</v>
+        <v>-1.098163995256236</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2422969447983746</v>
+        <v>-0.2345776705417403</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4385751569934484</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5371292878599615</v>
+        <v>0.5621676525709548</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.090268055180601</v>
+        <v>-1.083740180166149</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2941125914966334</v>
+        <v>-0.2840192790441816</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4624120354653913</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4511558160748937</v>
+        <v>0.4779330980621593</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.057592178906065</v>
+        <v>-1.051981214092703</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3279944674942607</v>
+        <v>-0.3158862886763549</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.4852419737905799</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4032428779236338</v>
+        <v>0.4287221771580816</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.072874502273606</v>
+        <v>-1.067694251647062</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3564843858921621</v>
+        <v>-0.344748519337438</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5068905803952037</v>
       </c>
       <c r="E67" t="n">
-        <v>0.3730870446540056</v>
+        <v>0.402233984692816</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.092128156448419</v>
+        <v>-1.085587141001148</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3916000025266073</v>
+        <v>-0.3765177057475204</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5269373195837066</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2931377312920271</v>
+        <v>0.3229796542221099</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.106293543026415</v>
+        <v>-1.101617008991235</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4006785815558775</v>
+        <v>-0.3880958871084264</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5449951132032002</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1876112954735099</v>
+        <v>0.2198257965513195</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.146644892114859</v>
+        <v>-1.143524769344587</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4252073894831437</v>
+        <v>-0.4100652307323296</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5605579113305483</v>
       </c>
       <c r="E70" t="n">
-        <v>0.124683222755345</v>
+        <v>0.1565239515218819</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.194817718826301</v>
+        <v>-1.191227460570756</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4412708385793212</v>
+        <v>-0.4279303791726884</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5737493015423945</v>
       </c>
       <c r="E71" t="n">
-        <v>0.07575993132517635</v>
+        <v>0.1038454164018961</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.278948609920642</v>
+        <v>-1.27950780833946</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5008846021311234</v>
+        <v>-0.4892129776923992</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5842820487645839</v>
       </c>
       <c r="E72" t="n">
-        <v>-0.01218606543070913</v>
+        <v>0.01867059092255531</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.314992817140905</v>
+        <v>-1.31513006166145</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4947392597164886</v>
+        <v>-0.4835129499454917</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5908965559116517</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.02536737959543287</v>
+        <v>0.00472275151010451</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.305663109839998</v>
+        <v>-1.305413441616453</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5446772845698389</v>
+        <v>-0.5336130401369328</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5921119238157403</v>
       </c>
       <c r="E74" t="n">
-        <v>0.005019141272558976</v>
+        <v>0.03422156313882386</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.346145863256624</v>
+        <v>-1.345991098158987</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5284298694142069</v>
+        <v>-0.5204609269340272</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5860685773734388</v>
       </c>
       <c r="E75" t="n">
-        <v>0.0102592538708303</v>
+        <v>0.04027784261991314</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.395457527478974</v>
+        <v>-1.39670440854861</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4799445924113108</v>
+        <v>-0.4706528463607678</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5710380450226084</v>
       </c>
       <c r="E76" t="n">
-        <v>0.06275090283517984</v>
+        <v>0.08999686025962707</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.342101530044806</v>
+        <v>-1.342564365289625</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4905299410703989</v>
+        <v>-0.4809710062192196</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5463093177224368</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1755907195410586</v>
+        <v>0.2031345267760512</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.340292530460171</v>
+        <v>-1.340990433447625</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4357825178055954</v>
+        <v>-0.427184294598234</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5127137836597473</v>
       </c>
       <c r="E78" t="n">
-        <v>0.2623146560448535</v>
+        <v>0.2856754254993927</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.306118644844362</v>
+        <v>-1.306893930380634</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4360336460772317</v>
+        <v>-0.4296079744291425</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4711448942039407</v>
       </c>
       <c r="E79" t="n">
-        <v>0.3557475135263739</v>
+        <v>0.3764524555035502</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.324665635743175</v>
+        <v>-1.31858453544454</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4040571328382403</v>
+        <v>-0.3979322310968783</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4225036191607494</v>
       </c>
       <c r="E80" t="n">
-        <v>0.4607746128978003</v>
+        <v>0.4768789433405232</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.338737579243353</v>
+        <v>-1.336830756436626</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3452653763616197</v>
+        <v>-0.3408706316079845</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3683533925475279</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5610901370798642</v>
+        <v>0.5732348171000428</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.286326232924003</v>
+        <v>-1.285286678683276</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2932059016321791</v>
+        <v>-0.2900127764573618</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.310651242588574</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6990384008050999</v>
+        <v>0.7068073166968251</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.222571772986384</v>
+        <v>-1.218458817514294</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2602044346333698</v>
+        <v>-0.256795222341098</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2504760047955958</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8559045076442396</v>
+        <v>0.8609168527403291</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.16507653921449</v>
+        <v>-1.163369742996218</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.216768003928836</v>
+        <v>-0.2139588714019277</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1889816452809041</v>
       </c>
       <c r="E84" t="n">
-        <v>1.026565148846285</v>
+        <v>1.028723099924648</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.074966751187878</v>
+        <v>-1.071934231303061</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1645946454483046</v>
+        <v>-0.1662036184444859</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1289113157420327</v>
       </c>
       <c r="E85" t="n">
-        <v>1.123322535830804</v>
+        <v>1.11994252450035</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.005483062541533</v>
+        <v>-0.9997275529671712</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1302572344463138</v>
+        <v>-0.1318808079234043</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.0723855365281582</v>
       </c>
       <c r="E86" t="n">
-        <v>1.290283415170487</v>
+        <v>1.28283278976258</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.929192629695372</v>
+        <v>-0.9237159893063734</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.04505028790897304</v>
+        <v>-0.04751922923069964</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.02029574857812923</v>
       </c>
       <c r="E87" t="n">
-        <v>1.387249589032006</v>
+        <v>1.38201823672228</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.8291107132078535</v>
+        <v>-0.8238472398401275</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0158391057541627</v>
+        <v>-0.01781455082116216</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.02681786806796882</v>
       </c>
       <c r="E88" t="n">
-        <v>1.474785312274346</v>
+        <v>1.46886335721762</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.7004527354850698</v>
+        <v>-0.6977195254588887</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03547136430464171</v>
+        <v>0.03294840120355148</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.06756764377791916</v>
       </c>
       <c r="E89" t="n">
-        <v>1.572480050133229</v>
+        <v>1.566187242861413</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.5696426468762867</v>
+        <v>-0.564776306589288</v>
       </c>
       <c r="G89" t="n">
-        <v>0.08054304887099324</v>
+        <v>0.07938085059062992</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.1002811104159047</v>
       </c>
       <c r="E90" t="n">
-        <v>1.634210883416849</v>
+        <v>1.624545365055033</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4401641221264124</v>
+        <v>-0.4374528128215949</v>
       </c>
       <c r="G90" t="n">
-        <v>0.09422515953089866</v>
+        <v>0.09151677032226302</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1228468822999336</v>
       </c>
       <c r="E91" t="n">
-        <v>1.679390611541927</v>
+        <v>1.666943701566931</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2816715217140004</v>
+        <v>-0.2761496198341837</v>
       </c>
       <c r="G91" t="n">
-        <v>0.1091512311642583</v>
+        <v>0.1053346654546229</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1337861763600557</v>
       </c>
       <c r="E92" t="n">
-        <v>1.709236914616283</v>
+        <v>1.696287748098014</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1207377208935891</v>
+        <v>-0.1188294380387714</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1040527432308051</v>
+        <v>0.1042337891940778</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1338070970788603</v>
       </c>
       <c r="E93" t="n">
-        <v>1.705010075393103</v>
+        <v>1.692144131616015</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0384396420734591</v>
+        <v>0.03773005870127746</v>
       </c>
       <c r="G93" t="n">
-        <v>0.09977480232444262</v>
+        <v>0.09945505179253362</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1248192480968872</v>
       </c>
       <c r="E94" t="n">
-        <v>1.653769687642662</v>
+        <v>1.639855429336302</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1498675922754292</v>
+        <v>0.145728355937703</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06069369507508948</v>
+        <v>0.06023523997454415</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1094630854124521</v>
       </c>
       <c r="E95" t="n">
-        <v>1.564883419916231</v>
+        <v>1.548345455190508</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2353212869401335</v>
+        <v>0.2300096319854077</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01180544479910261</v>
+        <v>0.01199379100282983</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.09086847518760098</v>
       </c>
       <c r="E96" t="n">
-        <v>1.440944317623264</v>
+        <v>1.425454667426814</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3148471863557485</v>
+        <v>0.3088011272112956</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02884083400370466</v>
+        <v>-0.02704789494806878</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.0711279825557221</v>
       </c>
       <c r="E97" t="n">
-        <v>1.287088829947578</v>
+        <v>1.270480782913492</v>
       </c>
       <c r="F97" t="n">
-        <v>0.363709155766099</v>
+        <v>0.3596575223138274</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.04981588487769903</v>
+        <v>-0.04765355365506324</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.05068585886944273</v>
       </c>
       <c r="E98" t="n">
-        <v>1.15339368631116</v>
+        <v>1.139626892861981</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3824123718106395</v>
+        <v>0.3794528543303675</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.087188735860689</v>
+        <v>-0.08453290838332607</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.03119941085000226</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9979379859278378</v>
+        <v>0.9875103224625679</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3776029733991862</v>
+        <v>0.3751982741934596</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1276802495658599</v>
+        <v>-0.1250740637235879</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.009674583698204202</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8884811006485944</v>
+        <v>0.8812129812520509</v>
       </c>
       <c r="F100" t="n">
-        <v>0.346661634256649</v>
+        <v>0.345686322131922</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1423624931680378</v>
+        <v>-0.1391372469352205</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.0126556423170127</v>
       </c>
       <c r="E101" t="n">
-        <v>0.746514784577178</v>
+        <v>0.7423171463158156</v>
       </c>
       <c r="F101" t="n">
-        <v>0.3472427333968307</v>
+        <v>0.3479245758552851</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1346914004984035</v>
+        <v>-0.1321669773492224</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.04317670957819021</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6341392631642082</v>
+        <v>0.6276800104100282</v>
       </c>
       <c r="F102" t="n">
-        <v>0.3045509272186603</v>
+        <v>0.304972881116933</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1945796530912965</v>
+        <v>-0.1947022971309328</v>
       </c>
     </row>
   </sheetData>
